--- a/A5_skeleton_and_plan/development plan.xlsx
+++ b/A5_skeleton_and_plan/development plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\needfinding\A5_skeleton_and_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1CD3E5-4C5A-4F3E-8A36-AAD015507F07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C76B973-2FED-4AA7-8797-87953BDEF4E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{027E90D8-2C8C-4EEC-A865-CF260682006C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="31">
   <si>
     <t>Week #</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Owned By</t>
   </si>
   <si>
-    <t>Not Yet Started</t>
-  </si>
-  <si>
     <t>Creation of Paper Prototype # 4</t>
   </si>
   <si>
@@ -105,11 +102,35 @@
     <t xml:space="preserve"> 09/15/2019</t>
   </si>
   <si>
-    <t>Testing of Digital Mockup</t>
-  </si>
-  <si>
     <t>Make the Powerpoint 
 presentation</t>
+  </si>
+  <si>
+    <t>Edit 'help' feature in prototype</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Add a rating feature in paper prototype</t>
+  </si>
+  <si>
+    <t>Implement the edited help and rating feature on digital mockup</t>
+  </si>
+  <si>
+    <t>Week 12 - Finalization of project</t>
+  </si>
+  <si>
+    <t>Implementation of interface flow in digital mockup</t>
+  </si>
+  <si>
+    <t>Upload the testing video of new paper prototypes to youtube</t>
+  </si>
+  <si>
+    <t>Comlpeted</t>
+  </si>
+  <si>
+    <t>Debug the mockup for any errors</t>
   </si>
 </sst>
 </file>
@@ -120,13 +141,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,6 +166,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -159,11 +180,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,6 +197,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,26 +216,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="4" xr:uid="{F8850D87-8801-4D7A-8C45-7DE411D1AC52}"/>
+    <cellStyle name="Style 1" xfId="3" xr:uid="{F8850D87-8801-4D7A-8C45-7DE411D1AC52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9257BF91-CF6A-4252-81C8-DE1C2CA36299}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
@@ -577,7 +598,7 @@
         <v>43717</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -591,7 +612,7 @@
         <v>43747</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -605,7 +626,7 @@
         <v>43717</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,12 +644,12 @@
         <v>43808</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -636,49 +657,125 @@
       <c r="D8" s="4">
         <v>43808</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
     </row>
